--- a/Excel/Item.道具.xlsx
+++ b/Excel/Item.道具.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB6B07-8452-4D53-8F95-AD9345F1AE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -26,34 +27,34 @@
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>item</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -69,243 +70,243 @@
       </rPr>
       <t>tem.lua</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>#note</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Icone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>道具表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>充值币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>钻石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>食物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>矿材</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>税收</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>如梦别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>食物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>矿材</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>税收</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>string:e&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通过充值所获得的道具，美其名曰如梦别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宇宙联邦中央银行发售的一种信用货币，可在宇宙商店中购买各种材料，也用于各国的交易。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>来自于宇宙奇点的一种材料，大爆炸后散落于世界各地，是物质与精神的结合物。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>王国的食物，以供人口的消耗，是支撑王国运作的基础资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>王国的矿材，可加工成各种材料，是支撑王国运作的基础资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>王国的税收，用于王国政府的运作，是支撑王国运作的基础资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>释义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>货币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>王国仓库道具</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>装备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>礼包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>类型-Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>详解</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>存储在resbag_info.currency</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>存储在resbag_info.storage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>存储在resbag_info.bagItem</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>存储在resbag_info.equiptItem</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>兔脚</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>象征着幸运，可以送给其他国家，增加友好度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>时空印记</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用于使时间静止，瞬间完成许多事情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>加速令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>招贤令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>进行一次科举，招募一些工作人员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>加速令礼包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>加速令礼包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -321,92 +322,99 @@
       </rPr>
       <t>0个加速令</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>赤兔马</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加将领的火力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加将领的冲击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加将领的围成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加将领的速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加将领的士气</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加将领的训练度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>增加将领的幸运</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>乌班大炮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>龙胆枪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>勃朗宁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>龙胆枪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>冲锋号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>令旗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>战神印</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>iniVal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>初始数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int:e&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniVal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -572,73 +580,73 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -915,7 +923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1017,18 +1025,18 @@
       <c r="A9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1060,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -1080,7 +1088,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1103,7 +1111,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1539,7 +1547,7 @@
   <mergeCells count="1">
     <mergeCell ref="J1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
